--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -80,6 +80,10 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="12">
@@ -162,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,6 +225,9 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -586,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,9 +616,9 @@
       <c r="C1" s="2" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Version 1118.6 (Dict Error Fixes + Comprehensive Testing)</t>
+      <c r="A2" s="28" t="inlineStr">
+        <is>
+          <t>Version 1120.0 (Phase 3.0 - Professional Installer System)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -646,87 +653,83 @@
       <c r="C6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="14" t="inlineStr">
+        <is>
+          <t>INSTALLATION VERSIONS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>VRS Manager is available in two versions:</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • LIGHT Version (~150MB): Core features with fast installation. StrOrigin Analysis shows "Punctuation/Space Change" or "Content Change"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FULL Version (~2.6GB): Includes AI-powered semantic similarity analysis with Korean BERT model. StrOrigin shows detailed similarity percentages (e.g., "94.5% similar")</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>It helps you compare different versions of voice data, intelligently merge translation work,</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
-      <c r="C7" s="2" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>and maintain continuity across multiple language versions.</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr"/>
-      <c r="C8" s="2" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr"/>
-      <c r="B9" s="2" t="inlineStr"/>
-      <c r="C9" s="2" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>THE FOUR CORE PROCESSES</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr"/>
-      <c r="C10" s="2" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>1. RAW PROCESS</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>and maintain continuity across multiple language versions.</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Purpose: Compare PREVIOUS vs CURRENT files and detect what changed</t>
-        </is>
-      </c>
+      <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr"/>
       <c r="C13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Use when: You receive new data from development team and need to review changes</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>THE FOUR CORE PROCESSES</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr"/>
       <c r="C14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Output: Comparison report with detailed change classifications</t>
-        </is>
-      </c>
+      <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr"/>
       <c r="C15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>1. RAW PROCESS</t>
+        </is>
+      </c>
       <c r="B16" s="2" t="inlineStr"/>
       <c r="C16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>2. WORKING PROCESS</t>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Purpose: Compare PREVIOUS vs CURRENT files and detect what changed</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr"/>
@@ -735,7 +738,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Purpose: Import previous work into new baseline using intelligent logic</t>
+          <t xml:space="preserve">   Use when: You receive new data from development team and need to review changes</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr"/>
@@ -744,30 +747,30 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Use when: You need to prepare a working file that preserves completed translations</t>
+          <t xml:space="preserve">   Output: Comparison report with detailed change classifications</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr"/>
       <c r="C19" s="2" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Output: Work Transform file ready for translation tasks</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="inlineStr"/>
       <c r="B20" s="2" t="inlineStr"/>
       <c r="C20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>2. WORKING PROCESS</t>
+        </is>
+      </c>
       <c r="B21" s="2" t="inlineStr"/>
       <c r="C21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>3. ALL LANGUAGE PROCESS</t>
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Purpose: Import previous work into new baseline using intelligent logic</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr"/>
@@ -776,7 +779,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Purpose: Merge and update three language versions (KR/EN/CN) in one file</t>
+          <t xml:space="preserve">   Use when: You need to prepare a working file that preserves completed translations</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr"/>
@@ -785,30 +788,30 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Use when: Managing multi-language projects with flexible update needs</t>
+          <t xml:space="preserve">   Output: Work Transform file ready for translation tasks</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr"/>
       <c r="C24" s="2" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Output: Unified tri-lingual file with selective language updates</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" s="2" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr"/>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>3. ALL LANGUAGE PROCESS</t>
+        </is>
+      </c>
       <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" s="2" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
-        <is>
-          <t>4. MASTER FILE UPDATE</t>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Purpose: Merge and update three language versions (KR/EN/CN) in one file</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr"/>
@@ -817,7 +820,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Purpose: Sync completed work from Working Process to Master File</t>
+          <t xml:space="preserve">   Use when: Managing multi-language projects with flexible update needs</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr"/>
@@ -826,60 +829,62 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Use when: You finish translation and need to update the official Master File</t>
+          <t xml:space="preserve">   Output: Unified tri-lingual file with selective language updates</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Output: Updated Master File with High/Low importance separation</t>
-        </is>
-      </c>
+      <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr"/>
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>4. MASTER FILE UPDATE</t>
+        </is>
+      </c>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="inlineStr">
-        <is>
-          <t>KEY FEATURES</t>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Purpose: Sync completed work from Working Process to Master File</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Use when: You finish translation and need to update the official Master File</t>
+        </is>
+      </c>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>✓ 10-Key Pattern Matching + TWO-PASS Algorithm</t>
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   Output: Updated Master File with High/Low importance separation</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Comprehensive 10-key combinations (3-key + 2-key) with TWO-PASS to prevent 1-to-many matching</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Automatically handles EventName changes by using both EventName and StrOrigin as lookup keys</t>
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>KEY FEATURES</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr"/>
@@ -893,176 +898,184 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>✓ Intelligent Import Logic</t>
+          <t>✓ 10-Key Pattern Matching + TWO-PASS Algorithm</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Analyzes recording STATUS to decide whether to preserve or update translation data</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr"/>
-      <c r="C39" s="2" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Comprehensive 10-key combinations (3-key + 2-key) with TWO-PASS to prevent 1-to-many matching</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Automatically handles EventName changes by using both EventName and StrOrigin as lookup keys</t>
+        </is>
+      </c>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>✓ Flexible Multi-Language Support</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Update only the languages you need, preserve others automatically</t>
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>✓ Intelligent Import Logic</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Analyzes recording STATUS to decide whether to preserve or update translation data</t>
+        </is>
+      </c>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>✓ Complete Update History</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Every process execution is logged with detailed statistics and file information</t>
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>✓ Flexible Multi-Language Support</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Update only the languages you need, preserve others automatically</t>
+        </is>
+      </c>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>✓ Visual Change Classification</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Color-coded change types make it easy to identify what needs attention</t>
+      <c r="A48" s="4" t="inlineStr">
+        <is>
+          <t>✓ Complete Update History</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
     </row>
-    <row r="49"/>
-    <row r="50"/>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Every process execution is logged with detailed statistics and file information</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr"/>
+      <c r="C49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr"/>
+      <c r="B50" s="2" t="inlineStr"/>
+      <c r="C50" s="2" t="inlineStr"/>
+    </row>
     <row r="51">
-      <c r="A51" s="13" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
+        <is>
+          <t>✓ Visual Change Classification</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr"/>
+      <c r="C51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Color-coded change types make it easy to identify what needs attention</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55">
+      <c r="A55" s="13" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1116? (TWO-PASS ALGORITHM)</t>
         </is>
       </c>
     </row>
-    <row r="52"/>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
+    <row r="56"/>
+    <row r="57">
+      <c r="A57" s="9" t="inlineStr">
         <is>
           <t>✅ TWO-PASS Algorithm</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t xml:space="preserve">  - PASS 1: Detect &amp; mark certainties (No Change, New, Deleted)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  - PASS 2: Pattern match using UNMARKED rows only</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  - Eliminates 1-to-many matching issues</t>
-        </is>
-      </c>
-    </row>
-    <row r="57"/>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>✅ 100% Correct Duplicate Handling</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Handles duplicate StrOrigin (e.g., "Hello", "Yes", "No")</t>
+          <t xml:space="preserve">  - PASS 2: Pattern match using UNMARKED rows only</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Handles blank StrOrigin (empty cells)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  - Handles duplicate CastingKey (same character speaking multiple times)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62"/>
+          <t xml:space="preserve">  - Eliminates 1-to-many matching issues</t>
+        </is>
+      </c>
+    </row>
+    <row r="61"/>
+    <row r="62">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>✅ 100% Correct Duplicate Handling</t>
+        </is>
+      </c>
+    </row>
     <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>✅ Mathematically Correct Row Counting</t>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Handles duplicate StrOrigin (e.g., "Hello", "Yes", "No")</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Formula: new_rows - deleted_rows = actual_difference</t>
+          <t xml:space="preserve">  - Handles blank StrOrigin (empty cells)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Always accurate, no discrepancies</t>
+          <t xml:space="preserve">  - Handles duplicate CastingKey (same character speaking multiple times)</t>
         </is>
       </c>
     </row>
@@ -1070,122 +1083,122 @@
     <row r="67">
       <c r="A67" s="9" t="inlineStr">
         <is>
-          <t>✅ Identical Detection Logic</t>
+          <t>✅ Mathematically Correct Row Counting</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - All 4 processors (Raw, Working, All Language, Master) use same algorithm</t>
+          <t xml:space="preserve">  - Formula: new_rows - deleted_rows = actual_difference</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Consistent results across all processes</t>
+          <t xml:space="preserve">  - Always accurate, no discrepancies</t>
         </is>
       </c>
     </row>
     <row r="70"/>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>✅ Full Duplicate Row Cleanup</t>
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>✅ Identical Detection Logic</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  - Automatically removes full duplicate rows before processing</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - All 4 processors (Raw, Working, All Language, Master) use same algorithm</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Ensures clean data for analysis</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>✅ TWO-PASS Algorithm - Eliminates 1-to-many matching issues</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  - Consistent results across all processes</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • PASS 1: Detect &amp; mark certainties (No Change, New, Deleted)</t>
+          <t>✅ Full Duplicate Row Cleanup</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • PASS 2: Pattern match using UNMARKED rows only</t>
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - Automatically removes full duplicate rows before processing</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Ensures each PREVIOUS row matches at most ONE CURRENT row</t>
-        </is>
-      </c>
-    </row>
-    <row r="78"/>
+          <t xml:space="preserve">  - Ensures clean data for analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>✅ TWO-PASS Algorithm - Eliminates 1-to-many matching issues</t>
+        </is>
+      </c>
+    </row>
     <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>✅ 100% Correct Duplicate Handling</t>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • PASS 1: Detect &amp; mark certainties (No Change, New, Deleted)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Handles duplicate StrOrigin (e.g., "Hello", "Yes", "No")</t>
+          <t xml:space="preserve">  • PASS 2: Pattern match using UNMARKED rows only</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Handles blank StrOrigin (empty cells)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Handles duplicate CastingKey (same character speaking multiple times)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83"/>
+          <t xml:space="preserve">  • Ensures each PREVIOUS row matches at most ONE CURRENT row</t>
+        </is>
+      </c>
+    </row>
+    <row r="82"/>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>✅ 100% Correct Duplicate Handling</t>
+        </is>
+      </c>
+    </row>
     <row r="84">
-      <c r="A84" s="9" t="inlineStr">
-        <is>
-          <t>✅ Mathematically Correct Row Counting</t>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Handles duplicate StrOrigin (e.g., "Hello", "Yes", "No")</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Formula: new_rows - deleted_rows = actual_difference</t>
+          <t xml:space="preserve">  • Handles blank StrOrigin (empty cells)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Always accurate, no discrepancies</t>
+          <t xml:space="preserve">  • Handles duplicate CastingKey (same character speaking multiple times)</t>
         </is>
       </c>
     </row>
@@ -1193,81 +1206,81 @@
     <row r="88">
       <c r="A88" s="9" t="inlineStr">
         <is>
-          <t>✅ Identical Detection Logic Across All 4 Processors</t>
+          <t>✅ Mathematically Correct Row Counting</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Raw, Working, All Language, and Master processors all use same algorithm</t>
+          <t xml:space="preserve">  • Formula: new_rows - deleted_rows = actual_difference</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • Always accurate, no discrepancies</t>
+        </is>
+      </c>
+    </row>
+    <row r="91"/>
+    <row r="92">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>✅ Identical Detection Logic Across All 4 Processors</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Raw, Working, All Language, and Master processors all use same algorithm</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • Consistent results across all processes</t>
         </is>
       </c>
     </row>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1117?</t>
         </is>
       </c>
     </row>
-    <row r="94"/>
-    <row r="95">
-      <c r="A95" s="9" t="inlineStr">
+    <row r="98"/>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
         <is>
           <t>✅ Master File Update - TimeFrame Preservation Logic (High Importance Only)</t>
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+    <row r="100">
+      <c r="A100" t="inlineStr">
         <is>
           <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Works for ANY combination of changes (robust and universal)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99"/>
-    <row r="100">
-      <c r="A100" s="9" t="inlineStr">
-        <is>
-          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TimeFrame updates only apply when accompanied by dialogue content changes</t>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Prevents unwanted timing updates when only frames shifted but content stayed same</t>
+          <t xml:space="preserve">  • Works for ANY combination of changes (robust and universal)</t>
         </is>
       </c>
     </row>
@@ -1275,828 +1288,850 @@
     <row r="104">
       <c r="A104" s="9" t="inlineStr">
         <is>
-          <t>Examples:</t>
+          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1. TimeFrame + StrOrigin both changed → TimeFrame updated ✅</t>
+          <t xml:space="preserve">  • TimeFrame updates only apply when accompanied by dialogue content changes</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • Prevents unwanted timing updates when only frames shifted but content stayed same</t>
+        </is>
+      </c>
+    </row>
+    <row r="107"/>
+    <row r="108">
+      <c r="A108" s="9" t="inlineStr">
+        <is>
+          <t>Examples:</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1. TimeFrame + StrOrigin both changed → TimeFrame updated ✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
           <t xml:space="preserve">  2. TimeFrame + StrOrigin + EventName all changed → TimeFrame updated ✅</t>
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t xml:space="preserve">  3. TimeFrame changed only (StrOrigin same) → TimeFrame preserved (TARGET kept) ✅</t>
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t xml:space="preserve">  4. TimeFrame + EventName changed (StrOrigin same) → TimeFrame preserved (TARGET kept) ✅</t>
         </is>
       </c>
     </row>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1117?</t>
         </is>
       </c>
     </row>
-    <row r="112"/>
-    <row r="113">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>✅ Master File Update - TimeFrame Preservation Logic (High Importance Only)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Works for ANY combination of changes (robust and universal)</t>
-        </is>
-      </c>
-    </row>
+    <row r="116"/>
     <row r="117">
       <c r="A117" s="9" t="inlineStr">
         <is>
-          <t>Why This Matters:</t>
+          <t>✅ Master File Update - TimeFrame Preservation Logic (High Importance Only)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TimeFrame updates only apply when accompanied by dialogue content changes</t>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Prevents unwanted timing updates when only frames shifted but content stayed same</t>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="9" t="inlineStr">
-        <is>
-          <t>Examples:</t>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Works for ANY combination of changes (robust and universal)</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • 1. TimeFrame + StrOrigin both changed → TimeFrame updated ✅</t>
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2. TimeFrame + StrOrigin + EventName all changed → TimeFrame updated ✅</t>
+          <t xml:space="preserve">  • TimeFrame updates only apply when accompanied by dialogue content changes</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • Prevents unwanted timing updates when only frames shifted but content stayed same</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="inlineStr">
+        <is>
+          <t>Examples:</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 1. TimeFrame + StrOrigin both changed → TimeFrame updated ✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 2. TimeFrame + StrOrigin + EventName all changed → TimeFrame updated ✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • 3. TimeFrame changed only (StrOrigin same) → TimeFrame preserved (TARGET kept) ✅</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
         <is>
           <t xml:space="preserve">  • 4. TimeFrame + EventName changed (StrOrigin same) → TimeFrame preserved (TARGET kept) ✅</t>
         </is>
       </c>
     </row>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127">
-      <c r="A127" s="8" t="inlineStr">
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131">
+      <c r="A131" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1117.1?</t>
         </is>
       </c>
     </row>
-    <row r="128"/>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
+    <row r="132"/>
+    <row r="133">
+      <c r="A133" s="9" t="inlineStr">
         <is>
           <t>✅ Column Robustness Fix (All Processes)</t>
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Program now handles files with different column structures gracefully</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Only compares columns that exist in BOTH files (PREVIOUS and CURRENT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • No crashes when optional columns missing (Desc, StartFrame, EndFrame, Text, etc.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Required CORE columns: SequenceName, EventName, StrOrigin, CastingKey components</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Older files may have fewer columns than newer files</t>
+          <t xml:space="preserve">  • Only compares columns that exist in BOTH files (PREVIOUS and CURRENT)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Program runs perfectly with just CORE keys</t>
+          <t xml:space="preserve">  • No crashes when optional columns missing (Desc, StartFrame, EndFrame, Text, etc.)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Gracefully skips change detection for missing optional columns</t>
+          <t xml:space="preserve">  • Required CORE columns: SequenceName, EventName, StrOrigin, CastingKey components</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="9" t="inlineStr">
         <is>
-          <t>✅ v1117 - Master File Update - TimeFrame Preservation Logic (High Importance Only)</t>
+          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+          <t xml:space="preserve">  • Older files may have fewer columns than newer files</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+          <t xml:space="preserve">  • Program runs perfectly with just CORE keys</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • Gracefully skips change detection for missing optional columns</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1117 - Master File Update - TimeFrame Preservation Logic (High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • Works for ANY combination of changes (robust and universal)</t>
         </is>
       </c>
     </row>
-    <row r="142"/>
-    <row r="143"/>
-    <row r="144">
-      <c r="A144" s="8" t="inlineStr">
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1118.3?</t>
         </is>
       </c>
     </row>
-    <row r="145"/>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
+    <row r="149"/>
+    <row r="150">
+      <c r="A150" s="9" t="inlineStr">
         <is>
           <t>✅ Master File Update - TimeFrame Preservation Restored (v1118.3)</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Applies to HIGH importance rows with EventName match in TARGET</t>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>Why This Matters:</t>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • StartFrame should only update when dialogue content also changed</t>
+          <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • If timing shifted but dialogue is same, keep old StartFrame</t>
+          <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Feature was in v1117, removed in v1118.2 simplification, now restored</t>
+          <t xml:space="preserve">  • Applies to HIGH importance rows with EventName match in TARGET</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="9" t="inlineStr">
         <is>
-          <t>✅ v1118.2 - Simplified Master File Update Logic</t>
+          <t>Why This Matters:</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • EventName-only matching (no 10-key system for Master File Update)</t>
+          <t xml:space="preserve">  • StartFrame should only update when dialogue content also changed</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • CHANGES column always preserved from SOURCE (not recalculated)</t>
+          <t xml:space="preserve">  • If timing shifted but dialogue is same, keep old StartFrame</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • LOW importance rows completely skipped (not processed)</t>
+          <t xml:space="preserve">  • Feature was in v1117, removed in v1118.2 simplification, now restored</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Single output sheet (HIGH + DELETED rows combined)</t>
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.2 - Simplified Master File Update Logic</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • EventName-only matching (no 10-key system for Master File Update)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES column always preserved from SOURCE (not recalculated)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • LOW importance rows completely skipped (not processed)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Single output sheet (HIGH + DELETED rows combined)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • Simple data movement operation (not comparison)</t>
         </is>
       </c>
     </row>
-    <row r="162"/>
-    <row r="163"/>
-    <row r="164">
-      <c r="A164" s="8" t="inlineStr">
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168">
+      <c r="A168" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1118.4?</t>
         </is>
       </c>
     </row>
-    <row r="165"/>
-    <row r="166">
-      <c r="A166" s="9" t="inlineStr">
+    <row r="169"/>
+    <row r="170">
+      <c r="A170" s="9" t="inlineStr">
         <is>
           <t>✅ Enhanced Super Group Word Analysis (v1118.4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • NEW: 'Other' super group - Contains: Police, Minigame, Trade, Church, Shop, Contribution, RoyalSupply, Research, Quest Groups, faction_etc</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • RENAMED: Catch-all 'Other' → 'Everything Else' (for better clarity)</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • NEW: Translation % (Previous) - Track translation progress from previous version</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • NEW: Translation % Change - See translation progress difference</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Renamed: 'Untranslated Words' → 'Untranslated Words (Remaining to Translate)'</t>
+          <t xml:space="preserve">  • NEW: 'Other' super group - Contains: Police, Minigame, Trade, Church, Shop, Contribution, RoyalSupply, Research, Quest Groups, faction_etc</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Reorganized columns: Most important metrics first, related data grouped together</t>
+          <t xml:space="preserve">  • RENAMED: Catch-all 'Other' → 'Everything Else' (for better clarity)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Added explanatory note below table describing 'Everything Else'</t>
+          <t xml:space="preserve">  • NEW: Translation % (Previous) - Track translation progress from previous version</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="inlineStr">
-        <is>
-          <t>Column Order (Reorganized for Better Readability):</t>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Translation % Change - See translation progress difference</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
+          <t xml:space="preserve">  • Renamed: 'Untranslated Words' → 'Untranslated Words (Remaining to Translate)'</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
+          <t xml:space="preserve">  • Reorganized columns: Most important metrics first, related data grouped together</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+          <t xml:space="preserve">  • Added explanatory note below table describing 'Everything Else'</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="9" t="inlineStr">
         <is>
-          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+          <t>Column Order (Reorganized for Better Readability):</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
       </c>
     </row>
-    <row r="183"/>
-    <row r="184"/>
-    <row r="185">
-      <c r="A185" s="8" t="inlineStr">
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1118.6?</t>
         </is>
       </c>
     </row>
-    <row r="186"/>
-    <row r="187">
-      <c r="A187" s="9" t="inlineStr">
+    <row r="190"/>
+    <row r="191">
+      <c r="A191" s="9" t="inlineStr">
         <is>
           <t>✅ Critical Bug Fixes (v1118.6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
+          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="9" t="inlineStr">
-        <is>
-          <t>✅ Enhanced Super Group Word Analysis (v1118.4)</t>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • NEW: 'Other' super group - Contains: Police, Minigame, Trade, Church, Shop, Contribution, RoyalSupply, Research, Quest Groups, faction_etc</t>
+          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • RENAMED: Catch-all 'Other' → 'Everything Else' (for better clarity)</t>
+          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • NEW: Translation % (Previous) - Track translation progress from previous version</t>
+          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • NEW: Translation % Change - See translation progress difference</t>
+      <c r="A197" s="9" t="inlineStr">
+        <is>
+          <t>✅ Enhanced Super Group Word Analysis (v1118.4)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Renamed: 'Untranslated Words' → 'Untranslated Words (Remaining to Translate)'</t>
+          <t xml:space="preserve">  • NEW: 'Other' super group - Contains: Police, Minigame, Trade, Church, Shop, Contribution, RoyalSupply, Research, Quest Groups, faction_etc</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Reorganized columns: Most important metrics first, related data grouped together</t>
+          <t xml:space="preserve">  • RENAMED: Catch-all 'Other' → 'Everything Else' (for better clarity)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Added explanatory note below table describing 'Everything Else'</t>
+          <t xml:space="preserve">  • NEW: Translation % (Previous) - Track translation progress from previous version</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="9" t="inlineStr">
-        <is>
-          <t>Column Order (Reorganized for Better Readability):</t>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Translation % Change - See translation progress difference</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
+          <t xml:space="preserve">  • Renamed: 'Untranslated Words' → 'Untranslated Words (Remaining to Translate)'</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
+          <t xml:space="preserve">  • Reorganized columns: Most important metrics first, related data grouped together</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+          <t xml:space="preserve">  • Added explanatory note below table describing 'Everything Else'</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="9" t="inlineStr">
         <is>
-          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+          <t>Column Order (Reorganized for Better Readability):</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
       </c>
     </row>
-    <row r="210"/>
-    <row r="211"/>
-    <row r="212">
-      <c r="A212" s="8" t="inlineStr">
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216">
+      <c r="A216" s="8" t="inlineStr">
         <is>
           <t>WHAT'S NEW IN v1118.6?</t>
         </is>
       </c>
     </row>
-    <row r="213"/>
-    <row r="214">
-      <c r="A214" s="9" t="inlineStr">
+    <row r="217"/>
+    <row r="218">
+      <c r="A218" s="9" t="inlineStr">
         <is>
           <t>✅ Critical Bug Fixes (v1118.6)</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
+          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="9" t="inlineStr">
-        <is>
-          <t>✅ Phase 2.2.1 COMPLETED - Super Group Analysis Improvements (v1118.4)</t>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • REMOVED: 'Others' super group and stageclosedialog check entirely</t>
+          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • REORDERED: Super groups - AI Dialog now appears before Quest Dialog</t>
+          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • RENAMED: 'Untranslated Words (Remaining to Translate)' → 'Not Translated'</t>
+          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • REMOVED: Migration columns from main table (Words Migrated In/Out)</t>
+      <c r="A224" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 2.2.1 COMPLETED - Super Group Analysis Improvements (v1118.4)</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • ADDED: Detailed 'Super Group Migrations' table below main table</t>
+          <t xml:space="preserve">  • REMOVED: 'Others' super group and stageclosedialog check entirely</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Shows source → destination pairs with word counts for all migrations</t>
+          <t xml:space="preserve">  • REORDERED: Super groups - AI Dialog now appears before Quest Dialog</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • UPDATED: Explanatory notes below table (removed 'Others' references)</t>
+          <t xml:space="preserve">  • RENAMED: 'Untranslated Words (Remaining to Translate)' → 'Not Translated'</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 8 super groups total: Main Chapters, F1, F2, F3, AI Dialog, Quest Dialog, Other, Everything Else</t>
+          <t xml:space="preserve">  • REMOVED: Migration columns from main table (Words Migrated In/Out)</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="9" t="inlineStr">
-        <is>
-          <t>Column Order (Reorganized for Better Readability):</t>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • ADDED: Detailed 'Super Group Migrations' table below main table</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
+          <t xml:space="preserve">  • Shows source → destination pairs with word counts for all migrations</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
+          <t xml:space="preserve">  • UPDATED: Explanatory notes below table (removed 'Others' references)</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+          <t xml:space="preserve">  • 8 super groups total: Main Chapters, F1, F2, F3, AI Dialog, Quest Dialog, Other, Everything Else</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="9" t="inlineStr">
         <is>
-          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+          <t>Column Order (Reorganized for Better Readability):</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
         </is>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+    <row r="241">
+      <c r="A241" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
@@ -2267,7 +2302,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
         <is>
@@ -2312,7 +2346,6 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="A28" s="21" t="inlineStr">
         <is>
@@ -2320,7 +2353,6 @@
         </is>
       </c>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
@@ -2498,7 +2530,6 @@
       <c r="B50" s="2" t="inlineStr"/>
       <c r="C50" s="2" t="inlineStr"/>
     </row>
-    <row r="51"/>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
@@ -2506,7 +2537,6 @@
         </is>
       </c>
     </row>
-    <row r="53"/>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
@@ -2521,7 +2551,6 @@
         </is>
       </c>
     </row>
-    <row r="56"/>
     <row r="57">
       <c r="A57" s="19" t="inlineStr">
         <is>
@@ -2536,7 +2565,6 @@
         </is>
       </c>
     </row>
-    <row r="59"/>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
@@ -2565,7 +2593,6 @@
         </is>
       </c>
     </row>
-    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
@@ -2587,7 +2614,6 @@
         </is>
       </c>
     </row>
-    <row r="68"/>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
@@ -2602,7 +2628,6 @@
         </is>
       </c>
     </row>
-    <row r="71"/>
     <row r="72">
       <c r="A72" s="20" t="inlineStr">
         <is>
@@ -2617,7 +2642,6 @@
         </is>
       </c>
     </row>
-    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
@@ -2660,7 +2684,6 @@
         </is>
       </c>
     </row>
-    <row r="81"/>
     <row r="82">
       <c r="A82" s="21" t="inlineStr">
         <is>
@@ -2668,7 +2691,6 @@
         </is>
       </c>
     </row>
-    <row r="83"/>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
@@ -3078,7 +3100,6 @@
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -4228,7 +4249,6 @@
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
     </row>
-    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -5391,7 +5411,6 @@
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="21" t="inlineStr">
         <is>
@@ -5399,7 +5418,6 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
         <is>
@@ -5428,7 +5446,6 @@
         </is>
       </c>
     </row>
-    <row r="20"/>
     <row r="21">
       <c r="A21" s="24" t="inlineStr">
         <is>
@@ -5464,7 +5481,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
@@ -5538,7 +5554,6 @@
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
     </row>
-    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
@@ -6545,8 +6560,6 @@
       <c r="B160" s="2" t="inlineStr"/>
       <c r="C160" s="2" t="inlineStr"/>
     </row>
-    <row r="161"/>
-    <row r="162"/>
     <row r="163">
       <c r="A163" s="25" t="inlineStr">
         <is>
@@ -6554,7 +6567,6 @@
         </is>
       </c>
     </row>
-    <row r="164"/>
     <row r="165">
       <c r="A165" s="9" t="inlineStr">
         <is>
@@ -6576,7 +6588,6 @@
         </is>
       </c>
     </row>
-    <row r="168"/>
     <row r="169">
       <c r="A169" s="26" t="inlineStr">
         <is>
@@ -6584,8 +6595,6 @@
         </is>
       </c>
     </row>
-    <row r="170"/>
-    <row r="171"/>
     <row r="172">
       <c r="A172" s="25" t="inlineStr">
         <is>
@@ -6593,7 +6602,6 @@
         </is>
       </c>
     </row>
-    <row r="173"/>
     <row r="174">
       <c r="A174" s="9" t="inlineStr">
         <is>
@@ -6615,7 +6623,6 @@
         </is>
       </c>
     </row>
-    <row r="177"/>
     <row r="178">
       <c r="A178" s="26" t="inlineStr">
         <is>
@@ -6623,8 +6630,6 @@
         </is>
       </c>
     </row>
-    <row r="179"/>
-    <row r="180"/>
     <row r="181">
       <c r="A181" s="25" t="inlineStr">
         <is>
@@ -6632,7 +6637,6 @@
         </is>
       </c>
     </row>
-    <row r="182"/>
     <row r="183">
       <c r="A183" s="9" t="inlineStr">
         <is>
@@ -6654,7 +6658,6 @@
         </is>
       </c>
     </row>
-    <row r="186"/>
     <row r="187">
       <c r="A187" s="26" t="inlineStr">
         <is>
@@ -6662,8 +6665,6 @@
         </is>
       </c>
     </row>
-    <row r="188"/>
-    <row r="189"/>
     <row r="190">
       <c r="A190" s="25" t="inlineStr">
         <is>
@@ -6671,7 +6672,6 @@
         </is>
       </c>
     </row>
-    <row r="191"/>
     <row r="192">
       <c r="A192" s="9" t="inlineStr">
         <is>
@@ -6693,7 +6693,6 @@
         </is>
       </c>
     </row>
-    <row r="195"/>
     <row r="196">
       <c r="A196" s="26" t="inlineStr">
         <is>
@@ -6701,8 +6700,6 @@
         </is>
       </c>
     </row>
-    <row r="197"/>
-    <row r="198"/>
     <row r="199">
       <c r="A199" s="25" t="inlineStr">
         <is>
@@ -6710,7 +6707,6 @@
         </is>
       </c>
     </row>
-    <row r="200"/>
     <row r="201">
       <c r="A201" s="9" t="inlineStr">
         <is>
@@ -6732,7 +6728,6 @@
         </is>
       </c>
     </row>
-    <row r="204"/>
     <row r="205">
       <c r="A205" s="26" t="inlineStr">
         <is>
@@ -6740,8 +6735,6 @@
         </is>
       </c>
     </row>
-    <row r="206"/>
-    <row r="207"/>
     <row r="208">
       <c r="A208" s="25" t="inlineStr">
         <is>
@@ -6749,7 +6742,6 @@
         </is>
       </c>
     </row>
-    <row r="209"/>
     <row r="210">
       <c r="A210" s="9" t="inlineStr">
         <is>
@@ -6771,7 +6763,6 @@
         </is>
       </c>
     </row>
-    <row r="213"/>
     <row r="214">
       <c r="A214" s="26" t="inlineStr">
         <is>
@@ -6812,7 +6803,6 @@
       <c r="B1" s="2" t="inlineStr"/>
       <c r="C1" s="2" t="inlineStr"/>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -7678,7 +7668,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7742,106 +7732,103 @@
         </is>
       </c>
     </row>
-    <row r="10"/>
     <row r="11">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>10 Key Combinations:</t>
+          <t>VERSION DIFFERENCES:</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3-Key (most precise): SEO, SEC, SOC, EOC</t>
+          <t>LIGHT Version Behavior:</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2-Key (less precise): SE, SO, SC, EO, EC, OC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+          <t xml:space="preserve">  • Punctuation/Space only: "Punctuation/Space Change"</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Content changed: "Content Change"</t>
+        </is>
+      </c>
+    </row>
     <row r="15">
-      <c r="A15" s="21" t="inlineStr">
-        <is>
-          <t>Why 10 combinations instead of simple lookup?</t>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FULL Version Behavior (with BERT AI):</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Handles duplicate StrOrigin (e.g., 'Hello' spoken by different characters)</t>
+      <c r="A16" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Punctuation/Space only: "Punctuation/Space Change"</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Handles blank StrOrigin cells</t>
+          <t xml:space="preserve">  • Content changed: Similarity percentage (e.g., "94.5% similar", "48.2% similar")</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t xml:space="preserve">  2-Key (less precise): SE, SO, SC, EO, EC, OC</t>
+        </is>
+      </c>
+    </row>
+    <row r="19"/>
+    <row r="20">
+      <c r="A20" s="21" t="inlineStr">
+        <is>
+          <t>Why 10 combinations instead of simple lookup?</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Handles duplicate StrOrigin (e.g., 'Hello' spoken by different characters)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Handles blank StrOrigin cells</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t xml:space="preserve">  • Handles EventName changes (SO or OC keys still match when E changes)</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Handles duplicate CastingKey (same character speaking multiple times)</t>
         </is>
       </c>
     </row>
-    <row r="20"/>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+    <row r="25"/>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>COLOR CODING REFERENCE</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="2" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="2" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>All output files use consistent color coding for change types:</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="2" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr"/>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="2" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>ORANGE (FFD580) - StrOrigin Change</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="2" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Korean source text changed. Highest priority - translation likely needs updating.</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr"/>
@@ -7853,189 +7840,193 @@
       <c r="C27" s="2" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>LIGHT PURPLE (E1D5FF) - Desc Change</t>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>All output files use consistent color coding for change types:</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" s="2" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Description/context changed. Review for updated context information.</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr"/>
       <c r="C29" s="2" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr"/>
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>ORANGE (FFD580) - StrOrigin Change</t>
+        </is>
+      </c>
       <c r="B30" s="2" t="inlineStr"/>
       <c r="C30" s="2" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>LIGHT RED (FF9999) - TimeFrame Change</t>
+          <t xml:space="preserve">  Korean source text changed. Highest priority - translation likely needs updating.</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr"/>
       <c r="C31" s="2" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Timing adjusted. Content unchanged, translation still valid.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="inlineStr"/>
       <c r="B32" s="2" t="inlineStr"/>
       <c r="C32" s="2" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr"/>
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>LIGHT PURPLE (E1D5FF) - Desc Change</t>
+        </is>
+      </c>
       <c r="B33" s="2" t="inlineStr"/>
       <c r="C33" s="2" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>YELLOW (FFFF99) - EventName Change</t>
+          <t xml:space="preserve">  Description/context changed. Review for updated context information.</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr"/>
       <c r="C34" s="2" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Event name changed but Korean text same. Usually low priority.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="inlineStr"/>
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>LIGHT RED (FF9999) - TimeFrame Change</t>
+        </is>
+      </c>
       <c r="B36" s="2" t="inlineStr"/>
       <c r="C36" s="2" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>LIGHT BLUE (87CEFA) - Character Group Change</t>
+          <t xml:space="preserve">  Timing adjusted. Content unchanged, translation still valid.</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr"/>
       <c r="C37" s="2" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Character attributes updated. Important for casting and voice direction.</t>
-        </is>
-      </c>
+      <c r="A38" s="2" t="inlineStr"/>
       <c r="B38" s="2" t="inlineStr"/>
       <c r="C38" s="2" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>YELLOW (FFFF99) - EventName Change</t>
+        </is>
+      </c>
       <c r="B39" s="2" t="inlineStr"/>
       <c r="C39" s="2" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>LIGHT GREEN (90EE90) - New Row</t>
+          <t xml:space="preserve">  Event name changed but Korean text same. Usually low priority.</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr"/>
       <c r="C40" s="2" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Brand new dialogue. Requires fresh translation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="inlineStr"/>
       <c r="B41" s="2" t="inlineStr"/>
       <c r="C41" s="2" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>LIGHT BLUE (87CEFA) - Character Group Change</t>
+        </is>
+      </c>
       <c r="B42" s="2" t="inlineStr"/>
       <c r="C42" s="2" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>LIGHT GRAY (D3D3D3) - No Relevant Change</t>
+          <t xml:space="preserve">  Character attributes updated. Important for casting and voice direction.</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr"/>
       <c r="C43" s="2" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Minor changes only. Low priority review.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="inlineStr"/>
       <c r="B44" s="2" t="inlineStr"/>
       <c r="C44" s="2" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>LIGHT GREEN (90EE90) - New Row</t>
+        </is>
+      </c>
       <c r="B45" s="2" t="inlineStr"/>
       <c r="C45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>VERY LIGHT GRAY (E8E8E8) - No Change</t>
+          <t xml:space="preserve">  Brand new dialogue. Requires fresh translation.</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr"/>
       <c r="C46" s="2" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Completely identical. No action needed.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="inlineStr"/>
       <c r="B47" s="2" t="inlineStr"/>
       <c r="C47" s="2" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>LIGHT GRAY (D3D3D3) - No Relevant Change</t>
+        </is>
+      </c>
       <c r="B48" s="2" t="inlineStr"/>
       <c r="C48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Minor changes only. Low priority review.</t>
+        </is>
+      </c>
       <c r="B49" s="2" t="inlineStr"/>
       <c r="C49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>STATUS COLOR CODING</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="inlineStr"/>
       <c r="B50" s="2" t="inlineStr"/>
       <c r="C50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr"/>
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>VERY LIGHT GRAY (E8E8E8) - No Change</t>
+        </is>
+      </c>
       <c r="B51" s="2" t="inlineStr"/>
       <c r="C51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
-        <is>
-          <t>STATUS values are also color-coded for quick visual scanning:</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Completely identical. No action needed.</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr"/>
@@ -8047,194 +8038,190 @@
       <c r="C53" s="2" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>LIGHT GREEN (90EE90)</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="inlineStr"/>
       <c r="B54" s="2" t="inlineStr"/>
       <c r="C54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RECORDED, 녹음 완료, 已录音</t>
+          <t>STATUS COLOR CODING</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr"/>
       <c r="C55" s="2" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Recording complete - work is done</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="inlineStr"/>
       <c r="B56" s="2" t="inlineStr"/>
       <c r="C56" s="2" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr"/>
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>STATUS values are also color-coded for quick visual scanning:</t>
+        </is>
+      </c>
       <c r="B57" s="2" t="inlineStr"/>
       <c r="C57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
-        <is>
-          <t>LIGHT PURPLE (E6D5FF)</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="inlineStr"/>
       <c r="B58" s="2" t="inlineStr"/>
       <c r="C58" s="2" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  POLISHED, 준비 중, 准备中</t>
+          <t>LIGHT GREEN (90EE90)</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr"/>
       <c r="C59" s="2" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Text refined, ready for recording</t>
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  RECORDED, 녹음 완료, 已录音</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr"/>
       <c r="C60" s="2" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Recording complete - work is done</t>
+        </is>
+      </c>
       <c r="B61" s="2" t="inlineStr"/>
       <c r="C61" s="2" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
-        <is>
-          <t>LIGHT RED (FFB3B3)</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="inlineStr"/>
       <c r="B62" s="2" t="inlineStr"/>
       <c r="C62" s="2" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RE-RECORD, NEED CHECK, 재녹음 필요, 需补录</t>
+          <t>LIGHT PURPLE (E6D5FF)</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr"/>
       <c r="C63" s="2" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Needs attention or re-recording</t>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  POLISHED, 준비 중, 准备中</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr"/>
       <c r="C64" s="2" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr"/>
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Text refined, ready for recording</t>
+        </is>
+      </c>
       <c r="B65" s="2" t="inlineStr"/>
       <c r="C65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>PALE GREEN (C5E8C5)</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="inlineStr"/>
       <c r="B66" s="2" t="inlineStr"/>
       <c r="C66" s="2" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  RE-RECORDED, 재녹음 완료, 已补录</t>
+          <t>LIGHT RED (FFB3B3)</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr"/>
       <c r="C67" s="2" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Re-recording complete</t>
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  RE-RECORD, NEED CHECK, 재녹음 필요, 需补录</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr"/>
       <c r="C68" s="2" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr"/>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Needs attention or re-recording</t>
+        </is>
+      </c>
       <c r="B69" s="2" t="inlineStr"/>
       <c r="C69" s="2" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>LIGHT YELLOW (FFFFE0)</t>
-        </is>
-      </c>
+      <c r="A70" s="2" t="inlineStr"/>
       <c r="B70" s="2" t="inlineStr"/>
       <c r="C70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREVIOUSLY RECORDED, 전달 완료, 已传达</t>
+          <t>PALE GREEN (C5E8C5)</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr"/>
       <c r="C71" s="2" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Previously delivered/recorded</t>
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  RE-RECORDED, 재녹음 완료, 已补录</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr"/>
       <c r="C72" s="2" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Re-recording complete</t>
+        </is>
+      </c>
       <c r="B73" s="2" t="inlineStr"/>
       <c r="C73" s="2" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>LIGHT BLUE (87CEEB)</t>
-        </is>
-      </c>
+      <c r="A74" s="2" t="inlineStr"/>
       <c r="B74" s="2" t="inlineStr"/>
       <c r="C74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FINAL, SHIPPED</t>
+          <t>LIGHT YELLOW (FFFFE0)</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr"/>
       <c r="C75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Finalized and delivered</t>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  PREVIOUSLY RECORDED, 전달 완료, 已传达</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr"/>
       <c r="C76" s="2" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Previously delivered/recorded</t>
+        </is>
+      </c>
       <c r="B77" s="2" t="inlineStr"/>
       <c r="C77" s="2" t="inlineStr"/>
     </row>
@@ -8246,21 +8233,25 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>UPDATE HISTORY SYSTEM</t>
+          <t>LIGHT BLUE (87CEEB)</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr"/>
       <c r="C79" s="2" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr"/>
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  FINAL, SHIPPED</t>
+        </is>
+      </c>
       <c r="B80" s="2" t="inlineStr"/>
       <c r="C80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="inlineStr">
-        <is>
-          <t>VRS Manager tracks all process executions in JSON files:</t>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Finalized and delivered</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr"/>
@@ -8272,18 +8263,14 @@
       <c r="C82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>working_update_history.json</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="inlineStr"/>
       <c r="B83" s="2" t="inlineStr"/>
       <c r="C83" s="2" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Records every Working Process execution</t>
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>UPDATE HISTORY SYSTEM</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr"/>
@@ -8295,82 +8282,78 @@
       <c r="C85" s="2" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="inlineStr">
-        <is>
-          <t>alllang_update_history.json</t>
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>VRS Manager tracks all process executions in JSON files:</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr"/>
       <c r="C86" s="2" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  Records every All Language Process execution</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="inlineStr"/>
       <c r="B87" s="2" t="inlineStr"/>
       <c r="C87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Includes which languages were updated vs preserved</t>
+          <t>working_update_history.json</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr"/>
       <c r="C88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Records every Working Process execution</t>
+        </is>
+      </c>
       <c r="B89" s="2" t="inlineStr"/>
       <c r="C89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>master_update_history.json</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="inlineStr"/>
       <c r="B90" s="2" t="inlineStr"/>
       <c r="C90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Records every Master File Update execution</t>
+          <t>alllang_update_history.json</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr"/>
       <c r="C91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Records every All Language Process execution</t>
+        </is>
+      </c>
       <c r="B92" s="2" t="inlineStr"/>
       <c r="C92" s="2" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="5" t="inlineStr">
-        <is>
-          <t>What's in each record:</t>
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Includes which languages were updated vs preserved</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr"/>
       <c r="C93" s="2" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Timestamp of execution</t>
-        </is>
-      </c>
+      <c r="A94" s="2" t="inlineStr"/>
       <c r="B94" s="2" t="inlineStr"/>
       <c r="C94" s="2" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Input file names</t>
+          <t>master_update_history.json</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr"/>
@@ -8379,25 +8362,21 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Output file name</t>
+          <t xml:space="preserve">  Records every Master File Update execution</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr"/>
       <c r="C96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Detailed statistics on changes</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="inlineStr"/>
       <c r="B97" s="2" t="inlineStr"/>
       <c r="C97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Word counts by category</t>
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>What's in each record:</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr"/>
@@ -8406,21 +8385,25 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Language update status (All Language only)</t>
+          <t xml:space="preserve">  • Timestamp of execution</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr"/>
       <c r="C99" s="2" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr"/>
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Input file names</t>
+        </is>
+      </c>
       <c r="B100" s="2" t="inlineStr"/>
       <c r="C100" s="2" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="inlineStr">
-        <is>
-          <t>Access via GUI:</t>
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Output file name</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr"/>
@@ -8429,7 +8412,7 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Click 'View Update History' button in main window</t>
+          <t xml:space="preserve">  • Detailed statistics on changes</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr"/>
@@ -8438,7 +8421,7 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Select process type to view (Master / All Language / Working)</t>
+          <t xml:space="preserve">  • Word counts by category</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr"/>
@@ -8447,7 +8430,7 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  See formatted history with complete details</t>
+          <t xml:space="preserve">  • Language update status (All Language only)</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr"/>
@@ -8459,39 +8442,43 @@
       <c r="C105" s="2" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="inlineStr"/>
+      <c r="A106" s="5" t="inlineStr">
+        <is>
+          <t>Access via GUI:</t>
+        </is>
+      </c>
       <c r="B106" s="2" t="inlineStr"/>
       <c r="C106" s="2" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>VERSION INFORMATION</t>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Click 'View Update History' button in main window</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr"/>
       <c r="C107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Select process type to view (Master / All Language / Working)</t>
+        </is>
+      </c>
       <c r="B108" s="2" t="inlineStr"/>
       <c r="C108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Current Version: 1113</t>
+          <t xml:space="preserve">  See formatted history with complete details</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr"/>
       <c r="C109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Release Date: November 2024</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="inlineStr"/>
       <c r="B110" s="2" t="inlineStr"/>
       <c r="C110" s="2" t="inlineStr"/>
     </row>
@@ -8501,27 +8488,23 @@
       <c r="C111" s="2" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="inlineStr">
-        <is>
-          <t>Key Improvements in Version 1113:</t>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>VERSION INFORMATION</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr"/>
       <c r="C112" s="2" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Simplified Master File Update logic</t>
-        </is>
-      </c>
+      <c r="A113" s="2" t="inlineStr"/>
       <c r="B113" s="2" t="inlineStr"/>
       <c r="C113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Fast copy-paste processing instead of cell-by-cell comparison</t>
+          <t>Current Version: 1113</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr"/>
@@ -8530,25 +8513,21 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Enhanced TimeFrame preservation with specific exception rules</t>
+          <t>Release Date: November 2024</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr"/>
       <c r="C115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Improved tri-lingual support with flexible updates</t>
-        </is>
-      </c>
+      <c r="A116" s="2" t="inlineStr"/>
       <c r="B116" s="2" t="inlineStr"/>
       <c r="C116" s="2" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Comprehensive update history tracking with JSON storage</t>
+      <c r="A117" s="5" t="inlineStr">
+        <is>
+          <t>Key Improvements in Version 1113:</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr"/>
@@ -8557,432 +8536,448 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Better color coding system for visual clarity</t>
+          <t xml:space="preserve">  • Simplified Master File Update logic</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr"/>
       <c r="C118" s="2" t="inlineStr"/>
     </row>
-    <row r="119"/>
-    <row r="120"/>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Fast copy-paste processing instead of cell-by-cell comparison</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr"/>
+      <c r="C119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Enhanced TimeFrame preservation with specific exception rules</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr"/>
+      <c r="C120" s="2" t="inlineStr"/>
+    </row>
     <row r="121">
-      <c r="A121" s="10" t="inlineStr">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Improved tri-lingual support with flexible updates</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr"/>
+      <c r="C121" s="2" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Comprehensive update history tracking with JSON storage</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr"/>
+      <c r="C122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Better color coding system for visual clarity</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="inlineStr"/>
+      <c r="C123" s="2" t="inlineStr"/>
+    </row>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126">
+      <c r="A126" s="10" t="inlineStr">
         <is>
           <t>TWO-PASS ALGORITHM (v1116)</t>
         </is>
       </c>
     </row>
-    <row r="122"/>
-    <row r="123">
-      <c r="A123" s="9" t="inlineStr">
+    <row r="127"/>
+    <row r="128">
+      <c r="A128" s="9" t="inlineStr">
         <is>
           <t>PASS 1 - Detect &amp; Mark Certainties:</t>
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+    <row r="129">
+      <c r="A129" t="inlineStr">
         <is>
           <t>1. Process all CURRENT rows</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2. Perfect match (ALL 10 keys match) → "No Change" → Mark PREVIOUS row</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>3. No match (ALL 10 keys missing) → "New Row"</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>4. After PASS 2: Unmarked PREVIOUS rows → "Deleted"</t>
-        </is>
-      </c>
-    </row>
-    <row r="128"/>
-    <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>PASS 2 - Detect Changes:</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1. Process CURRENT rows not classified in PASS 1</t>
+          <t>2. Perfect match (ALL 10 keys match) → "No Change" → Mark PREVIOUS row</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2. Pattern match with 10 keys (3-key first, then 2-key)</t>
+          <t>3. No match (ALL 10 keys missing) → "New Row"</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>3. Only use PREVIOUS rows that are UNMARKED</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>4. First unmarked match wins (deterministic)</t>
-        </is>
-      </c>
-    </row>
+          <t>4. After PASS 2: Unmarked PREVIOUS rows → "Deleted"</t>
+        </is>
+      </c>
+    </row>
+    <row r="133"/>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>5. No unmarked match → "New Row"</t>
-        </is>
-      </c>
-    </row>
-    <row r="135"/>
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>PASS 2 - Detect Changes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>1. Process CURRENT rows not classified in PASS 1</t>
+        </is>
+      </c>
+    </row>
     <row r="136">
-      <c r="A136" s="9" t="inlineStr">
-        <is>
-          <t>Why This Works:</t>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2. Pattern match with 10 keys (3-key first, then 2-key)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>• PASS 1 marks certainties, preventing them from being reused</t>
+          <t>3. Only use PREVIOUS rows that are UNMARKED</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>• PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
+          <t>4. First unmarked match wins (deterministic)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>5. No unmarked match → "New Row"</t>
+        </is>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" s="9" t="inlineStr">
+        <is>
+          <t>Why This Works:</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>• PASS 1 marks certainties, preventing them from being reused</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>• PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
           <t>• Handles all edge cases: duplicate StrOrigin, blank cells, duplicate CastingKey</t>
         </is>
       </c>
     </row>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142">
-      <c r="A142" s="10" t="inlineStr">
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147">
+      <c r="A147" s="10" t="inlineStr">
         <is>
           <t>TWO-PASS ALGORITHM (v1116)</t>
         </is>
       </c>
     </row>
-    <row r="143"/>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
+    <row r="148"/>
+    <row r="149">
+      <c r="A149" s="9" t="inlineStr">
         <is>
           <t>PASS 1 - Detect &amp; Mark Certainties:</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>1. Process all CURRENT rows</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2. Perfect match (ALL 10 keys match) → "No Change" → Mark PREVIOUS row</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>3. No match (ALL 10 keys missing) → "New Row"</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>4. After PASS 2: Unmarked PREVIOUS rows → "Deleted"</t>
-        </is>
-      </c>
-    </row>
-    <row r="149"/>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
-        <is>
-          <t>PASS 2 - Detect Changes:</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1. Process CURRENT rows not classified in PASS 1</t>
+          <t>2. Perfect match (ALL 10 keys match) → "No Change" → Mark PREVIOUS row</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2. Pattern match with 10 keys (3-key first, then 2-key)</t>
+          <t>3. No match (ALL 10 keys missing) → "New Row"</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>3. Only use PREVIOUS rows that are UNMARKED</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>4. First unmarked match wins (deterministic)</t>
-        </is>
-      </c>
-    </row>
+          <t>4. After PASS 2: Unmarked PREVIOUS rows → "Deleted"</t>
+        </is>
+      </c>
+    </row>
+    <row r="154"/>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>5. No unmarked match → "New Row"</t>
-        </is>
-      </c>
-    </row>
-    <row r="156"/>
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>PASS 2 - Detect Changes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>1. Process CURRENT rows not classified in PASS 1</t>
+        </is>
+      </c>
+    </row>
     <row r="157">
-      <c r="A157" s="9" t="inlineStr">
-        <is>
-          <t>Why This Works:</t>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2. Pattern match with 10 keys (3-key first, then 2-key)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>• PASS 1 marks certainties, preventing them from being reused</t>
+          <t>3. Only use PREVIOUS rows that are UNMARKED</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>• PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
+          <t>4. First unmarked match wins (deterministic)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>• Handles all edge cases: duplicate StrOrigin, blank cells, duplicate CastingKey</t>
+          <t>5. No unmarked match → "New Row"</t>
         </is>
       </c>
     </row>
     <row r="161"/>
     <row r="162">
-      <c r="A162" s="14" t="inlineStr">
-        <is>
-          <t>TWO-PASS ALGORITHM (v1116)</t>
+      <c r="A162" s="9" t="inlineStr">
+        <is>
+          <t>Why This Works:</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>The TWO-PASS algorithm ensures that each row in PREVIOUS matches at most ONE row in CURRENT,</t>
+          <t>• PASS 1 marks certainties, preventing them from being reused</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>preventing 1-to-many matching issues that occurred in previous versions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165"/>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>PASS 1 - Detect &amp; Mark Certainties:</t>
-        </is>
-      </c>
-    </row>
+          <t>• PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>• Handles all edge cases: duplicate StrOrigin, blank cells, duplicate CastingKey</t>
+        </is>
+      </c>
+    </row>
+    <row r="166"/>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  1. Process all CURRENT rows</t>
+      <c r="A167" s="14" t="inlineStr">
+        <is>
+          <t>TWO-PASS ALGORITHM (v1116)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2. Perfect match (ALL 10 keys match) → 'No Change' → Mark PREVIOUS row</t>
+          <t>The TWO-PASS algorithm ensures that each row in PREVIOUS matches at most ONE row in CURRENT,</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3. No match (ALL 10 keys missing) → 'New Row'</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4. After PASS 2: Unmarked PREVIOUS rows → 'Deleted'</t>
-        </is>
-      </c>
-    </row>
-    <row r="171"/>
+          <t>preventing 1-to-many matching issues that occurred in previous versions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170"/>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>PASS 1 - Detect &amp; Mark Certainties:</t>
+        </is>
+      </c>
+    </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PASS 2 - Detect Changes:</t>
+          <t xml:space="preserve">  1. Process all CURRENT rows</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1. Process CURRENT rows not classified in PASS 1</t>
+          <t xml:space="preserve">  2. Perfect match (ALL 10 keys match) → 'No Change' → Mark PREVIOUS row</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2. Pattern match with 10 keys (3-key first, then 2-key)</t>
+          <t xml:space="preserve">  3. No match (ALL 10 keys missing) → 'New Row'</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">  3. Only use PREVIOUS rows that are UNMARKED</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4. First unmarked match wins (deterministic)</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  4. After PASS 2: Unmarked PREVIOUS rows → 'Deleted'</t>
+        </is>
+      </c>
+    </row>
+    <row r="176"/>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5. No unmarked match → 'New Row'</t>
-        </is>
-      </c>
-    </row>
-    <row r="178"/>
+          <t>PASS 2 - Detect Changes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  1. Process CURRENT rows not classified in PASS 1</t>
+        </is>
+      </c>
+    </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Why This Works:</t>
+          <t xml:space="preserve">  2. Pattern match with 10 keys (3-key first, then 2-key)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - PASS 1 marks certainties, preventing them from being reused</t>
+          <t xml:space="preserve">  3. Only use PREVIOUS rows that are UNMARKED</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
+          <t xml:space="preserve">  4. First unmarked match wins (deterministic)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Handles all edge cases: duplicate StrOrigin, blank cells, duplicate CastingKey</t>
+          <t xml:space="preserve">  5. No unmarked match → 'New Row'</t>
         </is>
       </c>
     </row>
     <row r="183"/>
     <row r="184">
-      <c r="A184" s="9" t="inlineStr">
-        <is>
-          <t>EXAMPLE: DUPLICATE STRORIGIN HANDLING</t>
-        </is>
-      </c>
-    </row>
-    <row r="185"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Why This Works:</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - PASS 1 marks certainties, preventing them from being reused</t>
+        </is>
+      </c>
+    </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Scenario:</t>
+          <t xml:space="preserve">  - PASS 2 only uses unmarked rows, ensuring 1-to-1 matching</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PREVIOUS file has 1 row with common phrase "Hello"</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  CURRENT file has 3 rows with "Hello" (1 same character, 2 different characters)</t>
-        </is>
-      </c>
-    </row>
-    <row r="189"/>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Before (v1114v4 - BROKEN):</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  - Handles all edge cases: duplicate StrOrigin, blank cells, duplicate CastingKey</t>
+        </is>
+      </c>
+    </row>
+    <row r="188"/>
+    <row r="189">
+      <c r="A189" s="9" t="inlineStr">
+        <is>
+          <t>EXAMPLE: DUPLICATE STRORIGIN HANDLING</t>
+        </is>
+      </c>
+    </row>
+    <row r="190"/>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - 1 PREVIOUS row matches all 3 CURRENT rows</t>
+          <t>Scenario:</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Result: 2 rows incorrectly marked as "EventName Change" instead of "New Row"</t>
+          <t xml:space="preserve">  PREVIOUS file has 1 row with common phrase "Hello"</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - Row count math: BROKEN (new_rows - deleted_rows ≠ actual_difference)</t>
+          <t xml:space="preserve">  CURRENT file has 3 rows with "Hello" (1 same character, 2 different characters)</t>
         </is>
       </c>
     </row>
@@ -8990,412 +8985,397 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>After (v1116 - FIXED with TWO-PASS):</t>
+          <t>Before (v1114v4 - BROKEN):</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - PASS 1: Perfect match found → 1 CURRENT row marked "No Change", PREVIOUS row marked</t>
+          <t xml:space="preserve">  - 1 PREVIOUS row matches all 3 CURRENT rows</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">  - PASS 2: 2 remaining CURRENT rows → No unmarked PREVIOUS match → "New Row"</t>
+          <t xml:space="preserve">  - Result: 2 rows incorrectly marked as "EventName Change" instead of "New Row"</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t xml:space="preserve">  - Row count math: BROKEN (new_rows - deleted_rows ≠ actual_difference)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199"/>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>After (v1116 - FIXED with TWO-PASS):</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - PASS 1: Perfect match found → 1 CURRENT row marked "No Change", PREVIOUS row marked</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  - PASS 2: 2 remaining CURRENT rows → No unmarked PREVIOUS match → "New Row"</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
           <t xml:space="preserve">  - Result: Correct classification (1 No Change, 2 New Row)</t>
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  - Row count math: CORRECT (new_rows - deleted_rows = actual_difference) ✅</t>
-        </is>
-      </c>
-    </row>
-    <row r="200"/>
-    <row r="201"/>
-    <row r="202">
-      <c r="A202" s="27" t="inlineStr">
-        <is>
-          <t>Super Group Word Analysis Sheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="203"/>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Purpose:</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Track word count changes and translation progress at super group level</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Location:</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Available in RAW VRS CHECK output (Raw Process)</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Sheet name: 'Super Group Word Analysis'</t>
-        </is>
-      </c>
-    </row>
-    <row r="207"/>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Super Groups:</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  - Row count math: CORRECT (new_rows - deleted_rows = actual_difference) ✅</t>
+        </is>
+      </c>
+    </row>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207">
+      <c r="A207" s="27" t="inlineStr">
+        <is>
+          <t>Super Group Word Analysis Sheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="208"/>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1. Main Chapters</t>
+          <t>Purpose:</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Group contains 'chapter' OR Group in ['intro', 'prolog']</t>
+          <t>Track word count changes and translation progress at super group level</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2. Faction 1</t>
+          <t>Location:</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Group = 'faction_01'</t>
+          <t>Available in RAW VRS CHECK output (Raw Process)</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3. Faction 2</t>
-        </is>
-      </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Group = 'faction_02'</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4. Faction 3</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Group = 'faction_03'</t>
-        </is>
-      </c>
-    </row>
+          <t>Sheet name: 'Super Group Word Analysis'</t>
+        </is>
+      </c>
+    </row>
+    <row r="212"/>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5. Faction ETC</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Group = 'faction_etc'</t>
+          <t>Super Groups:</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6. Quest Dialog</t>
+          <t xml:space="preserve">  1. Main Chapters</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DialogType contains 'questdialog' (case-insensitive)</t>
+          <t>Group contains 'chapter' OR Group in ['intro', 'prolog']</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7. AI Dialog</t>
+          <t xml:space="preserve">  2. Faction 1</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DialogType contains 'aidialog' (case-insensitive)</t>
+          <t>Group = 'faction_01'</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8. Others</t>
+          <t xml:space="preserve">  3. Faction 2</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DialogType contains 'stageclosedialog' (case-insensitive)</t>
+          <t>Group = 'faction_02'</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9. Other</t>
+          <t xml:space="preserve">  4. Faction 3</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Default for rows that don't match any super group</t>
-        </is>
-      </c>
-    </row>
-    <row r="218"/>
+          <t>Group = 'faction_03'</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5. Faction ETC</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Group = 'faction_etc'</t>
+        </is>
+      </c>
+    </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Columns:</t>
+          <t xml:space="preserve">  6. Quest Dialog</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DialogType contains 'questdialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Super Group Name</t>
+          <t xml:space="preserve">  7. AI Dialog</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Name of the super group</t>
+          <t>DialogType contains 'aidialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Total Words (Previous)</t>
+          <t xml:space="preserve">  8. Others</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Total word count in previous file</t>
+          <t>DialogType contains 'stageclosedialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Total Words (Current)</t>
+          <t xml:space="preserve">  9. Other</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Total word count in current file</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Words Added</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Words from new rows in this super group</t>
-        </is>
-      </c>
-    </row>
+          <t>Default for rows that don't match any super group</t>
+        </is>
+      </c>
+    </row>
+    <row r="223"/>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Deleted</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Words from deleted rows in this super group</t>
+          <t>Columns:</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Changed</t>
+          <t xml:space="preserve">  • Super Group Name</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Words from rows where StrOrigin changed</t>
+          <t>Name of the super group</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Unchanged</t>
+          <t xml:space="preserve">  • Total Words (Previous)</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Words from rows with no StrOrigin changes</t>
+          <t>Total word count in previous file</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Migrated In</t>
+          <t xml:space="preserve">  • Total Words (Current)</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Words that moved INTO this super group from another</t>
+          <t>Total word count in current file</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Migrated Out</t>
+          <t xml:space="preserve">  • Words Added</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Words that moved OUT of this super group to another</t>
+          <t>Words from new rows in this super group</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Net Change</t>
+          <t xml:space="preserve">  • Words Deleted</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Total Words (Current) - Total Words (Previous)</t>
+          <t>Words from deleted rows in this super group</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • % Change</t>
+          <t xml:space="preserve">  • Words Changed</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Percentage change in total words</t>
+          <t>Words from rows where StrOrigin changed</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Translated Words</t>
+          <t xml:space="preserve">  • Words Unchanged</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Words where Text does NOT contain 'NO TRANSLATION'</t>
+          <t>Words from rows with no StrOrigin changes</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Untranslated Words</t>
+          <t xml:space="preserve">  • Words Migrated In</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Words where Text contains 'NO TRANSLATION'</t>
+          <t>Words that moved INTO this super group from another</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Translation %</t>
+          <t xml:space="preserve">  • Words Migrated Out</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Percentage of words that are translated</t>
-        </is>
-      </c>
-    </row>
-    <row r="234"/>
+          <t>Words that moved OUT of this super group to another</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Net Change</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Total Words (Current) - Total Words (Previous)</t>
+        </is>
+      </c>
+    </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Use Cases:</t>
+          <t xml:space="preserve">  • % Change</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Percentage change in total words</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Voice Actors</t>
+          <t xml:space="preserve">  • Translated Words</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>See which super groups need translation work</t>
+          <t>Words where Text does NOT contain 'NO TRANSLATION'</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Project Managers</t>
+          <t xml:space="preserve">  • Untranslated Words</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Track translation progress by super group</t>
+          <t>Words where Text contains 'NO TRANSLATION'</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Stakeholders</t>
+          <t xml:space="preserve">  • Translation %</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>High-level view of content changes and translation status</t>
+          <t>Percentage of words that are translated</t>
         </is>
       </c>
     </row>
@@ -9403,419 +9383,419 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Important Notes:</t>
+          <t>Use Cases:</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Word count based on StrOrigin column (space-separated words)</t>
+          <t xml:space="preserve">  • Voice Actors</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>See which super groups need translation work</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • DialogType rules have PRIORITY over Group rules</t>
+          <t xml:space="preserve">  • Project Managers</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Track translation progress by super group</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • All matching is case-insensitive</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Translated + Untranslated = Total Words (Current)</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  • Stakeholders</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>High-level view of content changes and translation status</t>
+        </is>
+      </c>
+    </row>
+    <row r="244"/>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Migration tracking: Words moving between super groups</t>
-        </is>
-      </c>
-    </row>
-    <row r="246"/>
-    <row r="247"/>
+          <t>Important Notes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Word count based on StrOrigin column (space-separated words)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • DialogType rules have PRIORITY over Group rules</t>
+        </is>
+      </c>
+    </row>
     <row r="248">
-      <c r="A248" s="27" t="inlineStr">
-        <is>
-          <t>Super Group Word Analysis Sheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="249"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • All matching is case-insensitive</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Translated + Untranslated = Total Words (Current)</t>
+        </is>
+      </c>
+    </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Purpose:</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Track word count changes and translation progress at super group level</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>Location:</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Available in RAW VRS CHECK output (Raw Process)</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Sheet name: 'Super Group Word Analysis'</t>
-        </is>
-      </c>
-    </row>
-    <row r="253"/>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>Super Groups:</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  • Migration tracking: Words moving between super groups</t>
+        </is>
+      </c>
+    </row>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253">
+      <c r="A253" s="27" t="inlineStr">
+        <is>
+          <t>Super Group Word Analysis Sheet</t>
+        </is>
+      </c>
+    </row>
+    <row r="254"/>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">  1. Main Chapters</t>
+          <t>Purpose:</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Group contains 'chapter' OR Group in ['intro', 'prolog']</t>
+          <t>Track word count changes and translation progress at super group level</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">  2. Faction 1</t>
+          <t>Location:</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Group = 'faction_01'</t>
+          <t>Available in RAW VRS CHECK output (Raw Process)</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  3. Faction 2</t>
-        </is>
-      </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Group = 'faction_02'</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  4. Faction 3</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Group = 'faction_03'</t>
-        </is>
-      </c>
-    </row>
+          <t>Sheet name: 'Super Group Word Analysis'</t>
+        </is>
+      </c>
+    </row>
+    <row r="258"/>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">  5. Faction ETC</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Group = 'faction_etc'</t>
+          <t>Super Groups:</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">  6. Quest Dialog</t>
+          <t xml:space="preserve">  1. Main Chapters</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DialogType contains 'questdialog' (case-insensitive)</t>
+          <t>Group contains 'chapter' OR Group in ['intro', 'prolog']</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">  7. AI Dialog</t>
+          <t xml:space="preserve">  2. Faction 1</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DialogType contains 'aidialog' (case-insensitive)</t>
+          <t>Group = 'faction_01'</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">  8. Others</t>
+          <t xml:space="preserve">  3. Faction 2</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>DialogType contains 'stageclosedialog' (case-insensitive)</t>
+          <t>Group = 'faction_02'</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve">  9. Other</t>
+          <t xml:space="preserve">  4. Faction 3</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Default for rows that don't match any super group</t>
-        </is>
-      </c>
-    </row>
-    <row r="264"/>
+          <t>Group = 'faction_03'</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  5. Faction ETC</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Group = 'faction_etc'</t>
+        </is>
+      </c>
+    </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Columns:</t>
+          <t xml:space="preserve">  6. Quest Dialog</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>DialogType contains 'questdialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Super Group Name</t>
+          <t xml:space="preserve">  7. AI Dialog</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Name of the super group</t>
+          <t>DialogType contains 'aidialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Total Words (Previous)</t>
+          <t xml:space="preserve">  8. Others</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Total word count in previous file</t>
+          <t>DialogType contains 'stageclosedialog' (case-insensitive)</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Total Words (Current)</t>
+          <t xml:space="preserve">  9. Other</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Total word count in current file</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Words Added</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Words from new rows in this super group</t>
-        </is>
-      </c>
-    </row>
+          <t>Default for rows that don't match any super group</t>
+        </is>
+      </c>
+    </row>
+    <row r="269"/>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Deleted</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Words from deleted rows in this super group</t>
+          <t>Columns:</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Changed</t>
+          <t xml:space="preserve">  • Super Group Name</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Words from rows where StrOrigin changed</t>
+          <t>Name of the super group</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Unchanged</t>
+          <t xml:space="preserve">  • Total Words (Previous)</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Words from rows with no StrOrigin changes</t>
+          <t>Total word count in previous file</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Migrated In</t>
+          <t xml:space="preserve">  • Total Words (Current)</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Words that moved INTO this super group from another</t>
+          <t>Total word count in current file</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Words Migrated Out</t>
+          <t xml:space="preserve">  • Words Added</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Words that moved OUT of this super group to another</t>
+          <t>Words from new rows in this super group</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Net Change</t>
+          <t xml:space="preserve">  • Words Deleted</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Total Words (Current) - Total Words (Previous)</t>
+          <t>Words from deleted rows in this super group</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • % Change</t>
+          <t xml:space="preserve">  • Words Changed</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Percentage change in total words</t>
+          <t>Words from rows where StrOrigin changed</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Translated Words</t>
+          <t xml:space="preserve">  • Words Unchanged</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Words where Text does NOT contain 'NO TRANSLATION'</t>
+          <t>Words from rows with no StrOrigin changes</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Untranslated Words</t>
+          <t xml:space="preserve">  • Words Migrated In</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Words where Text contains 'NO TRANSLATION'</t>
+          <t>Words that moved INTO this super group from another</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Translation %</t>
+          <t xml:space="preserve">  • Words Migrated Out</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Percentage of words that are translated</t>
-        </is>
-      </c>
-    </row>
-    <row r="280"/>
+          <t>Words that moved OUT of this super group to another</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Net Change</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Total Words (Current) - Total Words (Previous)</t>
+        </is>
+      </c>
+    </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Use Cases:</t>
+          <t xml:space="preserve">  • % Change</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Percentage change in total words</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Voice Actors</t>
+          <t xml:space="preserve">  • Translated Words</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>See which super groups need translation work</t>
+          <t>Words where Text does NOT contain 'NO TRANSLATION'</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Project Managers</t>
+          <t xml:space="preserve">  • Untranslated Words</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Track translation progress by super group</t>
+          <t>Words where Text contains 'NO TRANSLATION'</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Stakeholders</t>
+          <t xml:space="preserve">  • Translation %</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>High-level view of content changes and translation status</t>
+          <t>Percentage of words that are translated</t>
         </is>
       </c>
     </row>
@@ -9823,40 +9803,84 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Important Notes:</t>
+          <t>Use Cases:</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • Word count based on StrOrigin column (space-separated words)</t>
+          <t xml:space="preserve">  • Voice Actors</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>See which super groups need translation work</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • DialogType rules have PRIORITY over Group rules</t>
+          <t xml:space="preserve">  • Project Managers</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Track translation progress by super group</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">  • All matching is case-insensitive</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  • Translated + Untranslated = Total Words (Current)</t>
-        </is>
-      </c>
-    </row>
+          <t xml:space="preserve">  • Stakeholders</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>High-level view of content changes and translation status</t>
+        </is>
+      </c>
+    </row>
+    <row r="290"/>
     <row r="291">
       <c r="A291" t="inlineStr">
+        <is>
+          <t>Important Notes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Word count based on StrOrigin column (space-separated words)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • DialogType rules have PRIORITY over Group rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • All matching is case-insensitive</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Translated + Untranslated = Total Words (Current)</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Migration tracking: Words moving between super groups</t>
         </is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,9 +616,9 @@
       <c r="C1" s="2" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="inlineStr">
-        <is>
-          <t>Version 1120.0 (Phase 3.0 - Professional Installer System)</t>
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Version 1121.0 (Phase 3.1.1 - Word-Level Diff Enhancement)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -2132,6 +2132,233 @@
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
+        </is>
+      </c>
+    </row>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244">
+      <c r="A244" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v1.121.0?</t>
+        </is>
+      </c>
+    </row>
+    <row r="245"/>
+    <row r="246">
+      <c r="A246" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 3.1.1 COMPLETED - Word-Level Diff Enhancement (v1.121.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IMPROVED: Word-level diff (cleaner output than character-level)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Separate 'Diff Detail' column showing exact changes [old→new]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Progress bar with filling animation during analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: StrOrigin Analysis now in BOTH Raw and Working Process</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IMPROVED: 4-column layout for better readability</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • ANALYSIS: Shows which StrOrigin changes are trivial vs substantial</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9" t="inlineStr">
+        <is>
+          <t>✅ Critical Bug Fixes (v1118.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 2.2.1 COMPLETED - Super Group Analysis Improvements (v1118.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REMOVED: 'Others' super group and stageclosedialog check entirely</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REORDERED: Super groups - AI Dialog now appears before Quest Dialog</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • RENAMED: 'Untranslated Words (Remaining to Translate)' → 'Not Translated'</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REMOVED: Migration columns from main table (Words Migrated In/Out)</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • ADDED: Detailed 'Super Group Migrations' table below main table</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows source → destination pairs with word counts for all migrations</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • UPDATED: Explanatory notes below table (removed 'Others' references)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 8 super groups total: Main Chapters, F1, F2, F3, AI Dialog, Quest Dialog, Other, Everything Else</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="9" t="inlineStr">
+        <is>
+          <t>Column Order (Reorganized for Better Readability):</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
@@ -2302,6 +2529,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
         <is>
@@ -2346,6 +2574,7 @@
         </is>
       </c>
     </row>
+    <row r="27"/>
     <row r="28">
       <c r="A28" s="21" t="inlineStr">
         <is>
@@ -2353,6 +2582,7 @@
         </is>
       </c>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
@@ -2530,6 +2760,7 @@
       <c r="B50" s="2" t="inlineStr"/>
       <c r="C50" s="2" t="inlineStr"/>
     </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" s="9" t="inlineStr">
         <is>
@@ -2537,6 +2768,7 @@
         </is>
       </c>
     </row>
+    <row r="53"/>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
@@ -2551,6 +2783,7 @@
         </is>
       </c>
     </row>
+    <row r="56"/>
     <row r="57">
       <c r="A57" s="19" t="inlineStr">
         <is>
@@ -2565,6 +2798,7 @@
         </is>
       </c>
     </row>
+    <row r="59"/>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
@@ -2593,6 +2827,7 @@
         </is>
       </c>
     </row>
+    <row r="64"/>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
@@ -2614,6 +2849,7 @@
         </is>
       </c>
     </row>
+    <row r="68"/>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
@@ -2628,6 +2864,7 @@
         </is>
       </c>
     </row>
+    <row r="71"/>
     <row r="72">
       <c r="A72" s="20" t="inlineStr">
         <is>
@@ -2642,6 +2879,7 @@
         </is>
       </c>
     </row>
+    <row r="74"/>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
@@ -2684,6 +2922,7 @@
         </is>
       </c>
     </row>
+    <row r="81"/>
     <row r="82">
       <c r="A82" s="21" t="inlineStr">
         <is>
@@ -2691,6 +2930,7 @@
         </is>
       </c>
     </row>
+    <row r="83"/>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
@@ -3100,6 +3340,7 @@
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
@@ -4249,6 +4490,7 @@
       <c r="B11" s="2" t="inlineStr"/>
       <c r="C11" s="2" t="inlineStr"/>
     </row>
+    <row r="12"/>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
@@ -5306,7 +5548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C214"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5411,6 +5653,7 @@
       <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="2" t="inlineStr"/>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="21" t="inlineStr">
         <is>
@@ -5418,6 +5661,7 @@
         </is>
       </c>
     </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="23" t="inlineStr">
         <is>
@@ -5446,6 +5690,7 @@
         </is>
       </c>
     </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" s="24" t="inlineStr">
         <is>
@@ -5481,6 +5726,7 @@
         </is>
       </c>
     </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
@@ -5554,6 +5800,7 @@
       <c r="B35" s="2" t="inlineStr"/>
       <c r="C35" s="2" t="inlineStr"/>
     </row>
+    <row r="36"/>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
@@ -6560,6 +6807,8 @@
       <c r="B160" s="2" t="inlineStr"/>
       <c r="C160" s="2" t="inlineStr"/>
     </row>
+    <row r="161"/>
+    <row r="162"/>
     <row r="163">
       <c r="A163" s="25" t="inlineStr">
         <is>
@@ -6567,6 +6816,7 @@
         </is>
       </c>
     </row>
+    <row r="164"/>
     <row r="165">
       <c r="A165" s="9" t="inlineStr">
         <is>
@@ -6588,6 +6838,7 @@
         </is>
       </c>
     </row>
+    <row r="168"/>
     <row r="169">
       <c r="A169" s="26" t="inlineStr">
         <is>
@@ -6595,6 +6846,8 @@
         </is>
       </c>
     </row>
+    <row r="170"/>
+    <row r="171"/>
     <row r="172">
       <c r="A172" s="25" t="inlineStr">
         <is>
@@ -6602,6 +6855,7 @@
         </is>
       </c>
     </row>
+    <row r="173"/>
     <row r="174">
       <c r="A174" s="9" t="inlineStr">
         <is>
@@ -6623,6 +6877,7 @@
         </is>
       </c>
     </row>
+    <row r="177"/>
     <row r="178">
       <c r="A178" s="26" t="inlineStr">
         <is>
@@ -6630,6 +6885,8 @@
         </is>
       </c>
     </row>
+    <row r="179"/>
+    <row r="180"/>
     <row r="181">
       <c r="A181" s="25" t="inlineStr">
         <is>
@@ -6637,6 +6894,7 @@
         </is>
       </c>
     </row>
+    <row r="182"/>
     <row r="183">
       <c r="A183" s="9" t="inlineStr">
         <is>
@@ -6658,6 +6916,7 @@
         </is>
       </c>
     </row>
+    <row r="186"/>
     <row r="187">
       <c r="A187" s="26" t="inlineStr">
         <is>
@@ -6665,6 +6924,8 @@
         </is>
       </c>
     </row>
+    <row r="188"/>
+    <row r="189"/>
     <row r="190">
       <c r="A190" s="25" t="inlineStr">
         <is>
@@ -6672,6 +6933,7 @@
         </is>
       </c>
     </row>
+    <row r="191"/>
     <row r="192">
       <c r="A192" s="9" t="inlineStr">
         <is>
@@ -6693,6 +6955,7 @@
         </is>
       </c>
     </row>
+    <row r="195"/>
     <row r="196">
       <c r="A196" s="26" t="inlineStr">
         <is>
@@ -6700,6 +6963,8 @@
         </is>
       </c>
     </row>
+    <row r="197"/>
+    <row r="198"/>
     <row r="199">
       <c r="A199" s="25" t="inlineStr">
         <is>
@@ -6707,6 +6972,7 @@
         </is>
       </c>
     </row>
+    <row r="200"/>
     <row r="201">
       <c r="A201" s="9" t="inlineStr">
         <is>
@@ -6728,6 +6994,7 @@
         </is>
       </c>
     </row>
+    <row r="204"/>
     <row r="205">
       <c r="A205" s="26" t="inlineStr">
         <is>
@@ -6735,6 +7002,8 @@
         </is>
       </c>
     </row>
+    <row r="206"/>
+    <row r="207"/>
     <row r="208">
       <c r="A208" s="25" t="inlineStr">
         <is>
@@ -6742,6 +7011,7 @@
         </is>
       </c>
     </row>
+    <row r="209"/>
     <row r="210">
       <c r="A210" s="9" t="inlineStr">
         <is>
@@ -6763,8 +7033,48 @@
         </is>
       </c>
     </row>
+    <row r="213"/>
     <row r="214">
       <c r="A214" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217">
+      <c r="A217" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218"/>
+    <row r="219">
+      <c r="A219" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222"/>
+    <row r="223">
+      <c r="A223" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>
@@ -6803,6 +7113,7 @@
       <c r="B1" s="2" t="inlineStr"/>
       <c r="C1" s="2" t="inlineStr"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -7732,6 +8043,7 @@
         </is>
       </c>
     </row>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="21" t="inlineStr">
         <is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:C311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Version 1121.0 (Phase 3.1.1 - Word-Level Diff Enhancement)</t>
+          <t>Version 11202116 (DateTime Versioning Build)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -2359,6 +2359,233 @@
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
+        </is>
+      </c>
+    </row>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279">
+      <c r="A279" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v1.121.0?</t>
+        </is>
+      </c>
+    </row>
+    <row r="280"/>
+    <row r="281">
+      <c r="A281" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 3.1.1 COMPLETED - Word-Level Diff Enhancement (v1.121.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IMPROVED: Word-level diff (cleaner output than character-level)</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Separate 'Diff Detail' column showing exact changes [old→new]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: Progress bar with filling animation during analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • NEW: StrOrigin Analysis now in BOTH Raw and Working Process</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IMPROVED: 4-column layout for better readability</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • ANALYSIS: Shows which StrOrigin changes are trivial vs substantial</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="9" t="inlineStr">
+        <is>
+          <t>✅ Critical Bug Fixes (v1118.6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: TypeError 'unhashable type: dict' in Working VRS Check</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: All DataFrame column access now uses safe_str() pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • FIXED: Lookup dictionaries now correctly store indices (not dict objects)</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TESTED: 100% accuracy verified with 5000-row comprehensive test suite</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TESTED: All processors (Raw, Working, All Language) passing with real data</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="9" t="inlineStr">
+        <is>
+          <t>✅ Phase 2.2.1 COMPLETED - Super Group Analysis Improvements (v1118.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REMOVED: 'Others' super group and stageclosedialog check entirely</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REORDERED: Super groups - AI Dialog now appears before Quest Dialog</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • RENAMED: 'Untranslated Words (Remaining to Translate)' → 'Not Translated'</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • REMOVED: Migration columns from main table (Words Migrated In/Out)</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • ADDED: Detailed 'Super Group Migrations' table below main table</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows source → destination pairs with word counts for all migrations</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • UPDATED: Explanatory notes below table (removed 'Others' references)</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 8 super groups total: Main Chapters, F1, F2, F3, AI Dialog, Quest Dialog, Other, Everything Else</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="9" t="inlineStr">
+        <is>
+          <t>Column Order (Reorganized for Better Readability):</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 1. Super Group Name, Total Words (Current/Previous), Net Change, % Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 2. Translated/Untranslated words, Translation % (Current/Previous/Change)</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • 3. Detailed breakdown: Words Added/Deleted/Changed/Unchanged/Migrated</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="9" t="inlineStr">
+        <is>
+          <t>✅ v1118.3 - Master File Update - TimeFrame Preservation Restored</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • TimeFrame = StartFrame ONLY (EndFrame always updates from SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed AND StrOrigin changed → Update StartFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • IF StartFrame changed BUT StrOrigin NOT changed → Preserve StartFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
         </is>
@@ -5548,7 +5775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7075,6 +7302,45 @@
     <row r="222"/>
     <row r="223">
       <c r="A223" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226">
+      <c r="A226" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227"/>
+    <row r="228">
+      <c r="A228" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231"/>
+    <row r="232">
+      <c r="A232" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overview" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1. Raw Process" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2. Working Process" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3. All Language" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4. Master Update" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Workflow Guide" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Technical Reference" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overview" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1. Raw Process" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2. Working Process" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3. All Language" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4. Master Update" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Workflow Guide" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Technical Reference" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C311"/>
+  <dimension ref="A1:C339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Version 11202116 (DateTime Versioning Build)</t>
+          <t>Version 12031417 (Smarter Change Detection + Enhanced Tracking)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -2588,6 +2588,184 @@
       <c r="A311" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Prevents unwanted timing updates when dialogue content unchanged</t>
+        </is>
+      </c>
+    </row>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314">
+      <c r="A314" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v12031417?</t>
+        </is>
+      </c>
+    </row>
+    <row r="315"/>
+    <row r="316">
+      <c r="A316" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Smarter Change Classification</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES column now shows the MOST IMPORTANT change when multiple fields change</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Priority order: StrOrigin → Desc → CastingKey → TimeFrame → Group → EventName → SequenceName → DialogType → CharacterGroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: If EventName AND StrOrigin both changed → Shows 'StrOrigin Change' (higher priority)</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Makes it easier to quickly identify what needs attention first</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="9" t="inlineStr">
+        <is>
+          <t>📋 New DETAILED_CHANGES Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the FULL list of all changes when multiple fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: 'EventName+StrOrigin+Desc Change' - all 3 fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Located at the far right of the output for detailed review</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES = quick view, DETAILED_CHANGES = complete picture</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="9" t="inlineStr">
+        <is>
+          <t>🔄 New PreviousEventName Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • When EventName changes, you can now see what the OLD EventName was</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helps track row reorganization and event renaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Only populated when EventName actually changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty for New Rows and No Change rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="9" t="inlineStr">
+        <is>
+          <t>📝 New PreviousText Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the previous Text/Translation for ALL matched rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Instantly see what the old translation was without searching</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helpful for reviewing what needs re-translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty only for New Rows (no previous data exists)</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="9" t="inlineStr">
+        <is>
+          <t>🔧 Improved CastingKey Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CastingKey comparison is now more reliable across files</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Consistent handling even when files have different column structures</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3875,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr"/>
@@ -3774,7 +3952,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr"/>
@@ -3879,7 +4057,7 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr"/>
@@ -3956,7 +4134,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr"/>
@@ -4033,7 +4211,7 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr"/>
@@ -4119,7 +4297,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr"/>
@@ -4196,7 +4374,7 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr"/>
@@ -4255,7 +4433,7 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr"/>
@@ -4810,7 +4988,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr"/>
@@ -5270,7 +5448,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr"/>
@@ -5324,7 +5502,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr"/>
@@ -5775,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5998,7 +6176,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr"/>
@@ -6129,7 +6307,7 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr"/>
@@ -6188,7 +6366,7 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr"/>
@@ -6229,7 +6407,7 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr"/>
@@ -6265,7 +6443,7 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr"/>
@@ -6301,7 +6479,7 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr"/>
@@ -6328,7 +6506,7 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>  </t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr"/>
@@ -7341,6 +7519,45 @@
     <row r="231"/>
     <row r="232">
       <c r="A232" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235">
+      <c r="A235" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236"/>
+    <row r="237">
+      <c r="A237" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240"/>
+    <row r="241">
+      <c r="A241" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C339"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Version 12031417 (Smarter Change Detection + Enhanced Tracking)</t>
+          <t>Version 12051800 (Smarter Change Detection + Enhanced Tracking)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -2764,6 +2764,184 @@
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
+        </is>
+      </c>
+    </row>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342">
+      <c r="A342" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v12051800?</t>
+        </is>
+      </c>
+    </row>
+    <row r="343"/>
+    <row r="344">
+      <c r="A344" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Smarter Change Classification</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES column now shows the MOST IMPORTANT change when multiple fields change</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Priority order: StrOrigin → Desc → CastingKey → TimeFrame → Group → EventName → SequenceName → DialogType → CharacterGroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: If EventName AND StrOrigin both changed → Shows 'StrOrigin Change' (higher priority)</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Makes it easier to quickly identify what needs attention first</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="9" t="inlineStr">
+        <is>
+          <t>📋 New DETAILED_CHANGES Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the FULL list of all changes when multiple fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: 'EventName+StrOrigin+Desc Change' - all 3 fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Located at the far right of the output for detailed review</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES = quick view, DETAILED_CHANGES = complete picture</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="9" t="inlineStr">
+        <is>
+          <t>🔄 New PreviousEventName Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • When EventName changes, you can now see what the OLD EventName was</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helps track row reorganization and event renaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Only populated when EventName actually changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty for New Rows and No Change rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="9" t="inlineStr">
+        <is>
+          <t>📝 New PreviousText Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the previous Text/Translation for ALL matched rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Instantly see what the old translation was without searching</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helpful for reviewing what needs re-translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty only for New Rows (no previous data exists)</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="9" t="inlineStr">
+        <is>
+          <t>🔧 Improved CastingKey Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CastingKey comparison is now more reliable across files</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Consistent handling even when files have different column structures</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
         </is>
@@ -5953,7 +6131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C241"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7558,6 +7736,45 @@
     <row r="240"/>
     <row r="241">
       <c r="A241" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244">
+      <c r="A244" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="245"/>
+    <row r="246">
+      <c r="A246" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="249"/>
+    <row r="250">
+      <c r="A250" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C367"/>
+  <dimension ref="A1:C395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Version 12051800 (Smarter Change Detection + Enhanced Tracking)</t>
+          <t>Version 12051333 (Smarter Change Detection + Enhanced Tracking)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -2942,6 +2942,184 @@
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
+        </is>
+      </c>
+    </row>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370">
+      <c r="A370" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v12051333?</t>
+        </is>
+      </c>
+    </row>
+    <row r="371"/>
+    <row r="372">
+      <c r="A372" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Smarter Change Classification</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES column now shows the MOST IMPORTANT change when multiple fields change</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Priority order: StrOrigin → Desc → CastingKey → TimeFrame → Group → EventName → SequenceName → DialogType → CharacterGroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: If EventName AND StrOrigin both changed → Shows 'StrOrigin Change' (higher priority)</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Makes it easier to quickly identify what needs attention first</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="9" t="inlineStr">
+        <is>
+          <t>📋 New DETAILED_CHANGES Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the FULL list of all changes when multiple fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: 'EventName+StrOrigin+Desc Change' - all 3 fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Located at the far right of the output for detailed review</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES = quick view, DETAILED_CHANGES = complete picture</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="9" t="inlineStr">
+        <is>
+          <t>🔄 New PreviousEventName Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • When EventName changes, you can now see what the OLD EventName was</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helps track row reorganization and event renaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Only populated when EventName actually changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty for New Rows and No Change rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="9" t="inlineStr">
+        <is>
+          <t>📝 New PreviousText Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the previous Text/Translation for ALL matched rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Instantly see what the old translation was without searching</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helpful for reviewing what needs re-translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty only for New Rows (no previous data exists)</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="9" t="inlineStr">
+        <is>
+          <t>🔧 Improved CastingKey Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CastingKey comparison is now more reliable across files</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Consistent handling even when files have different column structures</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
         </is>
@@ -6131,7 +6309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7775,6 +7953,45 @@
     <row r="249"/>
     <row r="250">
       <c r="A250" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253">
+      <c r="A253" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="254"/>
+    <row r="255">
+      <c r="A255" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="258"/>
+    <row r="259">
+      <c r="A259" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>

--- a/docs/VRS_Manager_Process_Guide_EN.xlsx
+++ b/docs/VRS_Manager_Process_Guide_EN.xlsx
@@ -593,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C395"/>
+  <dimension ref="A1:C423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>Version 12051333 (Smarter Change Detection + Enhanced Tracking)</t>
+          <t>Version 12051348 (Smarter Change Detection + Enhanced Tracking)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -3120,6 +3120,184 @@
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
+        </is>
+      </c>
+    </row>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398">
+      <c r="A398" s="8" t="inlineStr">
+        <is>
+          <t>WHAT'S NEW IN v12051348?</t>
+        </is>
+      </c>
+    </row>
+    <row r="399"/>
+    <row r="400">
+      <c r="A400" s="9" t="inlineStr">
+        <is>
+          <t>🎯 Smarter Change Classification</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES column now shows the MOST IMPORTANT change when multiple fields change</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Priority order: StrOrigin → Desc → CastingKey → TimeFrame → Group → EventName → SequenceName → DialogType → CharacterGroup</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: If EventName AND StrOrigin both changed → Shows 'StrOrigin Change' (higher priority)</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Makes it easier to quickly identify what needs attention first</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="9" t="inlineStr">
+        <is>
+          <t>📋 New DETAILED_CHANGES Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the FULL list of all changes when multiple fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Example: 'EventName+StrOrigin+Desc Change' - all 3 fields changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Located at the far right of the output for detailed review</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CHANGES = quick view, DETAILED_CHANGES = complete picture</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="9" t="inlineStr">
+        <is>
+          <t>🔄 New PreviousEventName Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • When EventName changes, you can now see what the OLD EventName was</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helps track row reorganization and event renaming</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Only populated when EventName actually changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty for New Rows and No Change rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="9" t="inlineStr">
+        <is>
+          <t>📝 New PreviousText Column</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Shows the previous Text/Translation for ALL matched rows</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Instantly see what the old translation was without searching</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Helpful for reviewing what needs re-translation</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Empty only for New Rows (no previous data exists)</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="9" t="inlineStr">
+        <is>
+          <t>🔧 Improved CastingKey Accuracy</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • CastingKey comparison is now more reliable across files</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • Consistent handling even when files have different column structures</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
         <is>
           <t xml:space="preserve">  • Warnings displayed when source data is incomplete</t>
         </is>
@@ -6309,7 +6487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7992,6 +8170,45 @@
     <row r="258"/>
     <row r="259">
       <c r="A259" s="26" t="inlineStr">
+        <is>
+          <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262">
+      <c r="A262" s="25" t="inlineStr">
+        <is>
+          <t>TimeFrame Preservation Logic (v1117 - High Importance Only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="263"/>
+    <row r="264">
+      <c r="A264" s="9" t="inlineStr">
+        <is>
+          <t>Rule:</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed AND StrOrigin changed → Update TimeFrame (use SOURCE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  • If TimeFrame changed BUT StrOrigin did NOT change → Preserve TimeFrame (keep TARGET)</t>
+        </is>
+      </c>
+    </row>
+    <row r="267"/>
+    <row r="268">
+      <c r="A268" s="26" t="inlineStr">
         <is>
           <t>This ensures TimeFrame updates only apply when accompanied by dialogue content changes.</t>
         </is>
